--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dblin\Documents\HAMK\Web Development\Web Programming\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\Project_Team11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0782EAB-467B-410F-8336-FA43032F2E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A2700-168D-4718-B2A4-09F37A707EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Workflow for scrum practices</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Daniel Kovacs</t>
   </si>
   <si>
@@ -137,63 +134,6 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>I want the website to be dynamic</t>
-  </si>
-  <si>
-    <t>I want users to be able to view the venue through a pic walkthrough</t>
-  </si>
-  <si>
-    <t>privacy + terms + accessibility</t>
-  </si>
-  <si>
-    <t>careers = send cv through little box with send button cuz were smart</t>
-  </si>
-  <si>
-    <t>Have a registration page where users can register and obtain login information for future use and enter the main_user database</t>
-  </si>
-  <si>
-    <t>Customers must be able to book bottle service tables using their login info</t>
-  </si>
-  <si>
-    <t>Customers must be able to book the entire venue for events of their own</t>
-  </si>
-  <si>
-    <t>Customers should be able to write reviews</t>
-  </si>
-  <si>
-    <t>Viewers should be able to see upcoming and past events</t>
-  </si>
-  <si>
-    <t>Past events display should have pics</t>
-  </si>
-  <si>
-    <t>Food and drink menus should be displayed with prices</t>
-  </si>
-  <si>
-    <t>Customers should be able to buy tickets for events online</t>
-  </si>
-  <si>
-    <t>Music button should start music when users pushes it or embedded video</t>
-  </si>
-  <si>
-    <t>Hamburger menu for buttons</t>
-  </si>
-  <si>
-    <t>Stay up to date with newsletter option = like Dre's</t>
-  </si>
-  <si>
-    <t>Social media should be displayed and easily accessible</t>
-  </si>
-  <si>
-    <t>Users should be able to contact us</t>
-  </si>
-  <si>
-    <t>Company info: users to be able receive info about the company and what we do</t>
-  </si>
-  <si>
-    <t>Have a dedicated welcome page that attracts user attention</t>
-  </si>
-  <si>
     <t>Attended</t>
   </si>
   <si>
@@ -273,6 +213,60 @@
   </si>
   <si>
     <t>Hungary</t>
+  </si>
+  <si>
+    <t>Date: Feb. 17, 21</t>
+  </si>
+  <si>
+    <t>Date: Feb. 24, 21</t>
+  </si>
+  <si>
+    <t>Well organized and succinct pages</t>
+  </si>
+  <si>
+    <t>Bottle service page leading to phone number and tickets page</t>
+  </si>
+  <si>
+    <t>Tickets page with form to purchase event tickets</t>
+  </si>
+  <si>
+    <t>About Us page with contact links</t>
+  </si>
+  <si>
+    <t>Nice header with hamburger menu, social media links and login</t>
+  </si>
+  <si>
+    <t>Footer with links to privacy and terms with hours and contact info</t>
+  </si>
+  <si>
+    <t>Dress code page</t>
+  </si>
+  <si>
+    <t>Careers page with form to submit CV</t>
+  </si>
+  <si>
+    <t>Contact Us page with form for customers to reach out</t>
+  </si>
+  <si>
+    <t>Music button for page</t>
+  </si>
+  <si>
+    <t>Have a good looking welcome page</t>
+  </si>
+  <si>
+    <t>Bottle service menu with prices and contact info</t>
+  </si>
+  <si>
+    <t>Viewers should be able to see upcoming events</t>
+  </si>
+  <si>
+    <t>Website should be dynamic</t>
+  </si>
+  <si>
+    <t>Website should have fancy features</t>
+  </si>
+  <si>
+    <t>Users should be able to create an account</t>
   </si>
 </sst>
 </file>
@@ -464,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,14 +471,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -570,17 +558,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thick">
@@ -623,19 +600,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -645,17 +609,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -689,11 +642,62 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -709,12 +713,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,10 +729,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -736,14 +740,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,37 +760,11 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,7 +781,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,23 +790,47 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,18 +862,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -888,7 +877,18 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2264,8 +2264,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="B2:D52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Heading 1">
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{B3A7506F-50F5-4108-9370-432D2EF8957E}" name="User  Story" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Points" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DD5D64B4-EAC0-4F1A-8D23-2A18A12CEBF9}" name="Story Points" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BDD4E56C-E582-4FED-A82B-A04A0F2B83BB}" name="Priority" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2624,7 +2624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2632,45 +2632,40 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="115.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="50">
-        <f>SUM('Sprint 1 Backlog'!C3:C5)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="51">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2686,16 +2681,14 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52">
-        <v>3</v>
-      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2711,19 +2704,14 @@
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="50">
-        <f>SUM('Sprint 1 Backlog'!C6:C8)</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="51">
-        <v>1</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2739,21 +2727,15 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="49">
-        <f>SUM('Sprint 1 Backlog'!C9:C10)</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="52">
-        <v>1</v>
-      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2767,19 +2749,14 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="50">
-        <f>SUM('Sprint 1 Backlog'!C11)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="53">
-        <v>2</v>
-      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2795,21 +2772,16 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="49">
-        <f>SUM('Sprint 1 Backlog'!C12:C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="38">
-        <v>2</v>
-      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2823,21 +2795,16 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="50">
-        <f>SUM('Sprint 1 Backlog'!C15)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="53">
-        <v>1</v>
-      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2851,405 +2818,374 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="49">
-        <f>SUM('Sprint 1 Backlog'!C16:C17)</f>
-        <v>2</v>
-      </c>
-      <c r="D10" s="38">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="50">
-        <f>SUM('Sprint 1 Backlog'!C18:C21)</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="53">
-        <v>1</v>
-      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="49">
-        <f>SUM('Sprint 1 Backlog'!C22:C24)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="53">
-        <v>1</v>
-      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="50"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+      <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="50"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="50"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>15</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="50"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>16</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
+      <c r="B19" s="45"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>18</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="38"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="46"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="38"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="38"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="46"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="38"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="46"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="38"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="46"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="38"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="46"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="38"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="38"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="50"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3268,7 +3204,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3280,63 +3216,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -3344,18 +3280,18 @@
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3363,7 +3299,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3374,18 +3310,18 @@
         <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3393,7 +3329,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3414,7 +3350,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3428,17 +3364,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -3451,34 +3387,34 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="4"/>
@@ -3493,22 +3429,22 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="B3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="28">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3521,22 +3457,22 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="42">
+      <c r="B4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -3549,22 +3485,22 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="B5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="28">
         <v>2</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -3577,22 +3513,22 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="42">
+      <c r="B6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -3605,22 +3541,22 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="42">
+      <c r="B7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="28">
         <v>1</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -3633,22 +3569,22 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="42">
+      <c r="B8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="28">
         <v>1</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3661,22 +3597,22 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="B9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="28">
         <v>2</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3689,22 +3625,22 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="B10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -3717,22 +3653,22 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="42">
+      <c r="B11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28">
         <v>1</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -3745,22 +3681,22 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="42">
+      <c r="B12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="28">
         <v>2</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3773,22 +3709,22 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="42">
+      <c r="B13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="28">
         <v>1</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -3801,22 +3737,22 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="42">
+      <c r="B14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -3829,22 +3765,22 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="B15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="28">
         <v>1</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -3857,22 +3793,22 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="29">
         <v>8</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="42">
+      <c r="B16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="28">
         <v>1</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -3885,22 +3821,22 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="B17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -3913,22 +3849,22 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="29">
         <v>9</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="42">
+      <c r="B18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -3941,22 +3877,22 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="42">
+      <c r="B19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="28">
         <v>2</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3969,22 +3905,22 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="29">
         <v>9</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="42">
+      <c r="B20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="28">
         <v>2</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -3997,22 +3933,22 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="29">
         <v>9</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="28">
         <v>3</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -4025,22 +3961,22 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="29">
         <v>10</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B22" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="28">
         <v>1</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -4053,22 +3989,22 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="29">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="B23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="28">
         <v>2</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -4081,22 +4017,22 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="29">
         <v>10</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="42">
+      <c r="B24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="28">
         <v>2</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -4109,10 +4045,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4184,112 +4120,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4330,15 +4266,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100C68ECD9A1A4BD848A8D68FD2AAA74CC3" ma:contentTypeVersion="2" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="6dd7335a00b93b066a5b505414bc836d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f90fe026-78e7-4e6f-a71d-e4b2a38238cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5234d9762fa08a7bb226eea9f67577dc" ns2:_="">
     <xsd:import namespace="f90fe026-78e7-4e6f-a71d-e4b2a38238cc"/>
@@ -4470,6 +4397,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D379CA4A-4116-4DFB-AEC1-B5305BB9E2C0}">
   <ds:schemaRefs>
@@ -4480,14 +4416,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAD6ADF-AA47-4D84-852D-C1EB300374D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8360F55F-58EE-4561-8FA8-523E1CA8E75A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4503,4 +4431,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAD6ADF-AA47-4D84-852D-C1EB300374D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>